--- a/Recycling/Met_rec/metrec_Avg_hist_Max.xlsx
+++ b/Recycling/Met_rec/metrec_Avg_hist_Max.xlsx
@@ -128,7 +128,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -2907,7 +2907,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>197101.2572140934</v>
+        <v>197101.2572140933</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3039,7 +3039,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>253072.8266469312</v>
+        <v>253072.8266469313</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3303,7 +3303,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>584138.3258919509</v>
+        <v>584138.3258919507</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4887,7 +4887,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>680299.7968785909</v>
+        <v>680299.7968785911</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5085,7 +5085,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>853895.316417994</v>
+        <v>853895.3164179937</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Recycling/Met_rec/metrec_Avg_hist_Max.xlsx
+++ b/Recycling/Met_rec/metrec_Avg_hist_Max.xlsx
@@ -992,7 +992,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>1412213.633354438</v>
+        <v>1412213.633354437</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1196,7 +1196,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>1424400.257091781</v>
+        <v>1424400.257091782</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1764,7 +1764,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>1.747832629106875</v>
+        <v>1.747832629106876</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2464,7 +2464,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>95.6846057299074</v>
+        <v>95.68460572990742</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3688,7 +3688,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>799.2258391314398</v>
+        <v>799.2258391314399</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4096,7 +4096,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>2099.295576946713</v>
+        <v>2099.295576946712</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6544,7 +6544,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>59178.85522346678</v>
+        <v>59178.85522346679</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7156,7 +7156,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>127549.4455522012</v>
+        <v>127549.4455522013</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8744,7 +8744,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>272359.1176043605</v>
+        <v>272359.1176043604</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8788,7 +8788,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>690972.4066060227</v>
+        <v>690972.4066060229</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8992,7 +8992,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>875648.2220596616</v>
+        <v>875648.2220596618</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -10668,7 +10668,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>993907.4629553064</v>
+        <v>993907.4629553066</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -10988,7 +10988,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>1329238.890744765</v>
+        <v>1329238.890744766</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -11352,7 +11352,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>2345143.882409472</v>
+        <v>2345143.882409471</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12416,7 +12416,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>931366.3233031046</v>
+        <v>931366.3233031047</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -12504,7 +12504,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>651797.9591957727</v>
+        <v>651797.9591957728</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -12708,7 +12708,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>540096.8097470584</v>
+        <v>540096.8097470583</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -12824,7 +12824,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>726469.8845927892</v>
+        <v>726469.8845927891</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -13072,7 +13072,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>2700298.078616366</v>
+        <v>2700298.078616367</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -13116,7 +13116,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>410608.8110398097</v>
+        <v>410608.8110398096</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -13232,7 +13232,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>571126.488366319</v>
+        <v>571126.4883663189</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -13392,7 +13392,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>877386.5227613654</v>
+        <v>877386.5227613653</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -14252,7 +14252,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>524765.4915969715</v>
+        <v>524765.4915969716</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -14864,7 +14864,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>746893.5054980498</v>
+        <v>746893.5054980497</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -14952,7 +14952,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>485689.2332709833</v>
+        <v>485689.2332709832</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -15564,7 +15564,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>832183.7632345536</v>
+        <v>832183.7632345535</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -17196,7 +17196,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>977739.4328149803</v>
+        <v>977739.4328149805</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -17356,7 +17356,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>5483353.330131651</v>
+        <v>5483353.33013165</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -17604,7 +17604,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>825591.9183610823</v>
+        <v>825591.9183610822</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -17880,7 +17880,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>1461796.45938761</v>
+        <v>1461796.459387609</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -18216,7 +18216,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>669535.1663106586</v>
+        <v>669535.1663106587</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -18332,7 +18332,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>932575.2919966271</v>
+        <v>932575.291996627</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -18420,7 +18420,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>628227.4925835944</v>
+        <v>628227.4925835945</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -18740,7 +18740,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>865008.03081217</v>
+        <v>865008.0308121701</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -18784,7 +18784,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>5256722.284106773</v>
+        <v>5256722.284106772</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -19396,7 +19396,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>5342242.950424612</v>
+        <v>5342242.950424613</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -19644,7 +19644,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>587063.6756273496</v>
+        <v>587063.6756273495</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -20416,7 +20416,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>6156576.977070358</v>
+        <v>6156576.977070359</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -20460,7 +20460,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>860038.8737715746</v>
+        <v>860038.8737715747</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -20780,7 +20780,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>1355163.395639904</v>
+        <v>1355163.395639903</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -20824,7 +20824,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>6589737.034049928</v>
+        <v>6589737.034049927</v>
       </c>
     </row>
     <row r="13" spans="1:4">
